--- a/data/outputs/数学期刊(上)_altmetric/32.Lobachevskii Journal of Mathematics.xlsx
+++ b/data/outputs/数学期刊(上)_altmetric/32.Lobachevskii Journal of Mathematics.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG66"/>
+  <dimension ref="A1:AH66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,6 +532,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -645,6 +650,9 @@
       <c r="AG2" t="n">
         <v>0</v>
       </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -756,6 +764,9 @@
       <c r="AG3" t="n">
         <v>0</v>
       </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -869,6 +880,9 @@
       <c r="AG4" t="n">
         <v>0</v>
       </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -982,6 +996,9 @@
       <c r="AG5" t="n">
         <v>0</v>
       </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1095,6 +1112,9 @@
       <c r="AG6" t="n">
         <v>0</v>
       </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1208,6 +1228,9 @@
       <c r="AG7" t="n">
         <v>0</v>
       </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1319,6 +1342,9 @@
       <c r="AG8" t="n">
         <v>0</v>
       </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1432,6 +1458,9 @@
       <c r="AG9" t="n">
         <v>0</v>
       </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1545,6 +1574,9 @@
       <c r="AG10" t="n">
         <v>0</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1656,6 +1688,9 @@
       <c r="AG11" t="n">
         <v>0</v>
       </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1767,6 +1802,9 @@
       <c r="AG12" t="n">
         <v>0</v>
       </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1878,6 +1916,9 @@
       <c r="AG13" t="n">
         <v>0</v>
       </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1989,6 +2030,9 @@
       <c r="AG14" t="n">
         <v>0</v>
       </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2100,6 +2144,9 @@
       <c r="AG15" t="n">
         <v>0</v>
       </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2211,6 +2258,9 @@
       <c r="AG16" t="n">
         <v>0</v>
       </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2322,6 +2372,9 @@
       <c r="AG17" t="n">
         <v>0</v>
       </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2435,6 +2488,9 @@
       <c r="AG18" t="n">
         <v>0</v>
       </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2548,6 +2604,9 @@
       <c r="AG19" t="n">
         <v>0</v>
       </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2661,6 +2720,9 @@
       <c r="AG20" t="n">
         <v>0</v>
       </c>
+      <c r="AH20" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2774,6 +2836,9 @@
       <c r="AG21" t="n">
         <v>0</v>
       </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2887,6 +2952,9 @@
       <c r="AG22" t="n">
         <v>0</v>
       </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3000,6 +3068,9 @@
       <c r="AG23" t="n">
         <v>0</v>
       </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3113,6 +3184,9 @@
       <c r="AG24" t="n">
         <v>0</v>
       </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3224,6 +3298,9 @@
       <c r="AG25" t="n">
         <v>0</v>
       </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3335,6 +3412,9 @@
       <c r="AG26" t="n">
         <v>0</v>
       </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3446,6 +3526,9 @@
       <c r="AG27" t="n">
         <v>0</v>
       </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3559,6 +3642,9 @@
       <c r="AG28" t="n">
         <v>0</v>
       </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3670,6 +3756,9 @@
       <c r="AG29" t="n">
         <v>0</v>
       </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3783,6 +3872,9 @@
       <c r="AG30" t="n">
         <v>0</v>
       </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3894,6 +3986,9 @@
       <c r="AG31" t="n">
         <v>0</v>
       </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4007,6 +4102,9 @@
       <c r="AG32" t="n">
         <v>0</v>
       </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4120,6 +4218,9 @@
       <c r="AG33" t="n">
         <v>0</v>
       </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4233,6 +4334,9 @@
       <c r="AG34" t="n">
         <v>0</v>
       </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4346,6 +4450,9 @@
       <c r="AG35" t="n">
         <v>0</v>
       </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4461,6 +4568,9 @@
       <c r="AG36" t="n">
         <v>0</v>
       </c>
+      <c r="AH36" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4574,6 +4684,9 @@
       <c r="AG37" t="n">
         <v>0</v>
       </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4687,6 +4800,9 @@
       <c r="AG38" t="n">
         <v>0</v>
       </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4800,6 +4916,9 @@
       <c r="AG39" t="n">
         <v>0</v>
       </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4911,6 +5030,9 @@
       <c r="AG40" t="n">
         <v>0</v>
       </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5026,6 +5148,9 @@
       <c r="AG41" t="n">
         <v>0</v>
       </c>
+      <c r="AH41" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5139,6 +5264,9 @@
       <c r="AG42" t="n">
         <v>0</v>
       </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5250,6 +5378,9 @@
       <c r="AG43" t="n">
         <v>0</v>
       </c>
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5361,6 +5492,9 @@
       <c r="AG44" t="n">
         <v>0</v>
       </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5474,6 +5608,9 @@
       <c r="AG45" t="n">
         <v>0</v>
       </c>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5585,6 +5722,9 @@
       <c r="AG46" t="n">
         <v>0</v>
       </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5696,6 +5836,9 @@
       <c r="AG47" t="n">
         <v>0</v>
       </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5809,6 +5952,9 @@
       <c r="AG48" t="n">
         <v>0</v>
       </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5920,6 +6066,9 @@
       <c r="AG49" t="n">
         <v>0</v>
       </c>
+      <c r="AH49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6033,6 +6182,9 @@
       <c r="AG50" t="n">
         <v>0</v>
       </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6146,6 +6298,9 @@
       <c r="AG51" t="n">
         <v>0</v>
       </c>
+      <c r="AH51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6257,6 +6412,9 @@
       <c r="AG52" t="n">
         <v>0</v>
       </c>
+      <c r="AH52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6370,6 +6528,9 @@
       <c r="AG53" t="n">
         <v>0</v>
       </c>
+      <c r="AH53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6483,6 +6644,9 @@
       <c r="AG54" t="n">
         <v>0</v>
       </c>
+      <c r="AH54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6596,6 +6760,9 @@
       <c r="AG55" t="n">
         <v>0</v>
       </c>
+      <c r="AH55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6709,6 +6876,9 @@
       <c r="AG56" t="n">
         <v>0</v>
       </c>
+      <c r="AH56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6822,6 +6992,9 @@
       <c r="AG57" t="n">
         <v>0</v>
       </c>
+      <c r="AH57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6933,6 +7106,9 @@
       <c r="AG58" t="n">
         <v>0</v>
       </c>
+      <c r="AH58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7044,6 +7220,9 @@
       <c r="AG59" t="n">
         <v>0</v>
       </c>
+      <c r="AH59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7157,6 +7336,9 @@
       <c r="AG60" t="n">
         <v>0</v>
       </c>
+      <c r="AH60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7270,6 +7452,9 @@
       <c r="AG61" t="n">
         <v>0</v>
       </c>
+      <c r="AH61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7381,6 +7566,9 @@
       <c r="AG62" t="n">
         <v>0</v>
       </c>
+      <c r="AH62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7494,6 +7682,9 @@
       <c r="AG63" t="n">
         <v>0</v>
       </c>
+      <c r="AH63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7605,6 +7796,9 @@
       <c r="AG64" t="n">
         <v>0</v>
       </c>
+      <c r="AH64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7716,6 +7910,9 @@
       <c r="AG65" t="n">
         <v>0</v>
       </c>
+      <c r="AH65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7827,6 +8024,9 @@
         <v>0</v>
       </c>
       <c r="AG66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH66" t="n">
         <v>0</v>
       </c>
     </row>
